--- a/Pharmacy_Management/bin/DanhSachNhap.xlsx
+++ b/Pharmacy_Management/bin/DanhSachNhap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\WorkSpace\Java_Workspace\Pharmacy_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\iuh 22-26\HK6\PTUD\Major Assignment\Pharmacy_Management\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8284E8EE-A9F3-4BAA-81A0-8CE12C578DFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9781908-79F3-4060-8E0A-8E6516001572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="3225" windowWidth="14910" windowHeight="11235" xr2:uid="{EF467DD0-3CE7-4ABB-AB48-F1B8B3DDE89A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF467DD0-3CE7-4ABB-AB48-F1B8B3DDE89A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Mã thuốc</t>
   </si>
@@ -58,12 +58,6 @@
   </si>
   <si>
     <t>Mã nhà cung cấp</t>
-  </si>
-  <si>
-    <t>T202</t>
-  </si>
-  <si>
-    <t>Hello</t>
   </si>
   <si>
     <t>NCC001</t>
@@ -123,9 +117,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +157,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -269,7 +263,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,7 +405,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -419,18 +413,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A767313-0C67-485B-8A61-DF66467ECC5F}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -438,7 +432,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -481,20 +475,6 @@
       </c>
       <c r="D4">
         <v>9310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>8000</v>
       </c>
     </row>
   </sheetData>
